--- a/Collections/Евро/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality.xlsx
@@ -1641,6 +1641,15 @@
   </cellStyles>
   <dxfs count="95">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -2376,15 +2385,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2416,9 +2416,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="94"/>
-    <tableColumn id="2" name="Link" dataDxfId="93" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="92"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2693,7 +2693,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3544,7 +3544,7 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I5 I10:I18">
-    <cfRule type="containsText" dxfId="91" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -3559,7 +3559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J7">
-    <cfRule type="containsText" dxfId="90" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -3574,7 +3574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="89" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -3589,7 +3589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K9">
-    <cfRule type="containsText" dxfId="88" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -3604,7 +3604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="87" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -3619,7 +3619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="86" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -3634,7 +3634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J18">
-    <cfRule type="containsText" dxfId="85" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -3648,8 +3648,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J5">
-    <cfRule type="containsText" dxfId="84" priority="27" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J5 J3">
+    <cfRule type="containsText" dxfId="87" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -3664,7 +3664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -3679,7 +3679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K18">
-    <cfRule type="containsText" dxfId="82" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -3694,7 +3694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="81" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -3709,7 +3709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="80" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -3724,7 +3724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:K19 J20:K20">
-    <cfRule type="containsText" dxfId="79" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -3751,7 +3751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3768,7 +3768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3785,12 +3785,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -3817,7 +3817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3834,7 +3834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3851,7 +3851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3868,7 +3868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3886,7 +3886,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4773,7 +4773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="70" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4790,7 +4790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4807,7 +4807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4836,7 +4836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4853,7 +4853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4870,7 +4870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4887,7 +4887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4953,7 +4953,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5838,7 +5838,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5855,7 +5855,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5872,7 +5872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5901,7 +5901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5918,7 +5918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5935,7 +5935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5952,7 +5952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6018,7 +6018,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6893,7 +6893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6922,7 +6922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6939,7 +6939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6956,7 +6956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6973,7 +6973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6990,7 +6990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7007,7 +7007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7085,7 +7085,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7972,7 +7972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7989,7 +7989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8006,7 +8006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8035,7 +8035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8052,7 +8052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8069,7 +8069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8086,7 +8086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8152,7 +8152,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9039,7 +9039,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9056,7 +9056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9073,7 +9073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9102,7 +9102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9119,7 +9119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9136,7 +9136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9153,7 +9153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9219,7 +9219,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10104,7 +10104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10121,7 +10121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10138,7 +10138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10167,7 +10167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10184,7 +10184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10201,7 +10201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10218,7 +10218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10281,10 +10281,10 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11259,7 +11259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:K23">
-    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11276,7 +11276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11293,7 +11293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11322,7 +11322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11339,7 +11339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11356,7 +11356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11373,7 +11373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Евро/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Luxembourg/#EURO#Luxembourg#Regular#[2002-present]#circulation_quality.xlsx
@@ -1641,15 +1641,6 @@
   </cellStyles>
   <dxfs count="95">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -2385,6 +2376,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2416,9 +2416,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="94"/>
+    <tableColumn id="2" name="Link" dataDxfId="93" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2693,7 +2693,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3544,7 +3544,7 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I5 I10:I18">
-    <cfRule type="containsText" dxfId="94" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="68">
@@ -3559,7 +3559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J7">
-    <cfRule type="containsText" dxfId="93" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="64">
@@ -3574,7 +3574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="92" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -3589,7 +3589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K9">
-    <cfRule type="containsText" dxfId="91" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -3604,7 +3604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="90" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
@@ -3619,7 +3619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="89" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -3634,7 +3634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J18">
-    <cfRule type="containsText" dxfId="88" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -3648,8 +3648,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J3">
-    <cfRule type="containsText" dxfId="87" priority="27" operator="containsText" text="*-">
+  <conditionalFormatting sqref="J3 J5">
+    <cfRule type="containsText" dxfId="84" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -3664,7 +3664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="86" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -3679,7 +3679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K18">
-    <cfRule type="containsText" dxfId="85" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -3694,7 +3694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="84" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -3709,7 +3709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7">
-    <cfRule type="containsText" dxfId="83" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -3724,7 +3724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:K19 J20:K20">
-    <cfRule type="containsText" dxfId="82" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -3751,7 +3751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="81" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3768,7 +3768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="80" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3785,12 +3785,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="78" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -3817,7 +3817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3834,7 +3834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="76" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3851,7 +3851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3868,7 +3868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3886,7 +3886,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4773,7 +4773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4790,7 +4790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4807,7 +4807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4836,7 +4836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="70" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4853,7 +4853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4870,7 +4870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4887,7 +4887,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4953,7 +4953,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5838,7 +5838,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5855,7 +5855,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5872,7 +5872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5901,7 +5901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5918,7 +5918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5935,7 +5935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5952,7 +5952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6018,7 +6018,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6893,7 +6893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6922,7 +6922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6939,7 +6939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="51" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6956,7 +6956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6973,7 +6973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="49" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6990,7 +6990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="48" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7007,7 +7007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7085,7 +7085,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7972,7 +7972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="43" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7989,7 +7989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8006,7 +8006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8035,7 +8035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8052,7 +8052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="39" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8069,7 +8069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8086,7 +8086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="37" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8152,7 +8152,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9039,7 +9039,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="33" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9056,7 +9056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9073,7 +9073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9102,7 +9102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9119,7 +9119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9136,7 +9136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9153,7 +9153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9219,7 +9219,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10104,7 +10104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10121,7 +10121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10138,7 +10138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10167,7 +10167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10184,7 +10184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10201,7 +10201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10218,7 +10218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10281,10 +10281,10 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11259,7 +11259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:K23">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11276,7 +11276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11293,7 +11293,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11322,7 +11322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11339,7 +11339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11356,7 +11356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11373,7 +11373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
